--- a/数据整理/stocks/港股/01368-特步国际.xlsx
+++ b/数据整理/stocks/港股/01368-特步国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1083,4 +1084,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01368-特步国际.xlsx
+++ b/数据整理/stocks/港股/01368-特步国际.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1092,7 +1093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,17 +1104,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1123,14 +1144,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.86</v>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1139,13 +1182,461 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0462</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>6.29</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01368-特步国际.xlsx
+++ b/数据整理/stocks/港股/01368-特步国际.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1567,7 +1568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1578,17 +1579,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1598,14 +1619,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.37</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1614,14 +1657,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.86</v>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6497</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1630,13 +1695,705 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7201</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5838</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>6.29</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01368-特步国际.xlsx
+++ b/数据整理/stocks/港股/01368-特步国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2308,7 +2309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2319,17 +2320,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2339,14 +2360,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.51</v>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2355,14 +2398,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.37</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7824</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2371,14 +2436,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.86</v>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7445</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2387,13 +2474,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1861</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9901</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2667</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9493</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7873</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7554</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5980</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.29</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01368-特步国际.xlsx
+++ b/数据整理/stocks/港股/01368-特步国际.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>21.43</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>14.51</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>10.37</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>10.86</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.29</v>
       </c>
     </row>
@@ -566,6 +583,706 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015184</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合D</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1343,7 +2060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2083,7 +2800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2557,7 +3274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2803,7 +3520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01368-特步国际.xlsx
+++ b/数据整理/stocks/港股/01368-特步国际.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>7.07</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>21.43</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>14.51</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>10.37</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>10.86</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.29</v>
       </c>
     </row>
@@ -583,6 +600,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6554</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010480</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富稳进双盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013367</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013551</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1282,7 +1887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2060,7 +2665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2800,7 +3405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3274,7 +3879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3520,7 +4125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
